--- a/PPTs/model list.xlsx
+++ b/PPTs/model list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ML codebase\08-oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Rahul\DataSciencePython\PPTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>classification</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>anova</t>
+  </si>
+  <si>
+    <t>OVR vs OVO</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>K=sqrt(n)</t>
   </si>
 </sst>
 </file>
@@ -202,19 +214,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +522,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,12 +537,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -541,19 +553,19 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -576,7 +588,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -587,21 +599,35 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -640,12 +666,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -665,7 +691,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
